--- a/Document/Journal-de-Travail_MétrozQuentin.xlsx
+++ b/Document/Journal-de-Travail_MétrozQuentin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg03lul\Desktop\P335-MobileApp\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EFCCE-EEE5-4A5F-959F-5DE5DAFCDDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E98E1C-3988-4329-941D-75E1B6F29F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -179,6 +179,27 @@
   </si>
   <si>
     <t>J'ai corrigé mon API pour le projet en supprimmant beaucoup d'élément</t>
+  </si>
+  <si>
+    <t>J'ai fini de corrigé mon API</t>
+  </si>
+  <si>
+    <t>J'ai commencé a essayer de faire un appel avec l'API</t>
+  </si>
+  <si>
+    <t>J'ai essayé différente façon pour faire en sorte de faire un appel à notre API.</t>
+  </si>
+  <si>
+    <t>On a fait la connexion entre le téléphone et notre api. Grâce au dossier qui nous à été fournis.</t>
+  </si>
+  <si>
+    <t>On a changé l'api pour réduire le temps d'attente au lançage de l'application.</t>
+  </si>
+  <si>
+    <t>J'ai essayé de faire communiquer mon application mobile avec l'API</t>
+  </si>
+  <si>
+    <t>J'ai fais de nouveau du style pour le user</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1120,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3611111111111111</c:v>
+                  <c:v>0.50694444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1114,7 +1135,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6805555555555552E-2</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2029,8 +2050,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2104,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 11 heurs 15 minutes</v>
+        <v>0 jours 18 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2098,15 +2119,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>555</v>
+        <v>720</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>675</v>
+        <v>1080</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2455,7 +2476,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>40</v>
@@ -2478,7 +2499,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>42</v>
@@ -2501,7 +2522,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>41</v>
@@ -2521,7 +2542,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F21" s="37" t="s">
         <v>43</v>
@@ -2569,87 +2590,151 @@
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="47">
+        <v>45418</v>
+      </c>
       <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="37"/>
+      <c r="D24" s="49">
+        <v>45</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="str">
+      <c r="A25" s="17">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="37"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="51">
+        <v>45418</v>
+      </c>
+      <c r="C25" s="52">
+        <v>1</v>
+      </c>
+      <c r="D25" s="53">
+        <v>30</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="47">
+        <v>45425</v>
+      </c>
+      <c r="C26" s="48">
+        <v>1</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="str">
+      <c r="A27" s="17">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="51">
+        <v>45425</v>
+      </c>
+      <c r="C27" s="52">
+        <v>1</v>
+      </c>
+      <c r="D27" s="53">
+        <v>15</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>49</v>
+      </c>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="47">
+        <v>45439</v>
+      </c>
       <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="36"/>
+      <c r="D28" s="49">
+        <v>15</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="str">
+      <c r="A29" s="17">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="51">
+        <v>45439</v>
+      </c>
+      <c r="C29" s="52">
+        <v>1</v>
+      </c>
+      <c r="D29" s="53">
+        <v>45</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="47">
+        <v>45439</v>
+      </c>
       <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="37"/>
+      <c r="D30" s="49">
+        <v>15</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -8779,11 +8864,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8791,7 +8876,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.3611111111111111</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8869,7 +8954,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>125</v>
+        <v>320</v>
       </c>
       <c r="C10" s="38" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8877,7 +8962,7 @@
       </c>
       <c r="D10" s="34">
         <f t="shared" si="0"/>
-        <v>8.6805555555555552E-2</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8900,7 +8985,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.46875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9137,6 +9222,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9145,15 +9239,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9176,6 +9261,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9184,12 +9277,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>